--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H2">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I2">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J2">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N2">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O2">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P2">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q2">
-        <v>0.01047500683633333</v>
+        <v>0.1233868341595556</v>
       </c>
       <c r="R2">
-        <v>0.09427506152699999</v>
+        <v>1.110481507436</v>
       </c>
       <c r="S2">
-        <v>0.0001669837772301643</v>
+        <v>0.002557788084607433</v>
       </c>
       <c r="T2">
-        <v>0.0001836165545026842</v>
+        <v>0.002703808486162437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H3">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I3">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J3">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P3">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q3">
-        <v>0.021025137874</v>
+        <v>0.4157203121240001</v>
       </c>
       <c r="R3">
-        <v>0.189226240866</v>
+        <v>3.741482809116</v>
       </c>
       <c r="S3">
-        <v>0.0003351651214973761</v>
+        <v>0.008617811358260724</v>
       </c>
       <c r="T3">
-        <v>0.0003685499622756448</v>
+        <v>0.009109789674459521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H4">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I4">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J4">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N4">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O4">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P4">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q4">
-        <v>6.01921661111111E-05</v>
+        <v>0.0006350106371111111</v>
       </c>
       <c r="R4">
-        <v>0.0005417294949999999</v>
+        <v>0.005715095734</v>
       </c>
       <c r="S4">
-        <v>9.595330498530835E-07</v>
+        <v>1.316366249499066E-05</v>
       </c>
       <c r="T4">
-        <v>1.055109397259753E-06</v>
+        <v>1.391515684083601E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H5">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I5">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J5">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N5">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O5">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P5">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q5">
-        <v>0.01094410384283333</v>
+        <v>0.104849557383</v>
       </c>
       <c r="R5">
-        <v>0.06566462305699998</v>
+        <v>0.629097344298</v>
       </c>
       <c r="S5">
-        <v>0.0001744617284388484</v>
+        <v>0.002173513490133028</v>
       </c>
       <c r="T5">
-        <v>0.0001278929087199879</v>
+        <v>0.00153173080933382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H6">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I6">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J6">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N6">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O6">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P6">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q6">
-        <v>7.554832266666666E-05</v>
+        <v>0.002562427637111111</v>
       </c>
       <c r="R6">
-        <v>0.000679934904</v>
+        <v>0.023061848734</v>
       </c>
       <c r="S6">
-        <v>1.204328023779993E-06</v>
+        <v>5.311868906042436E-05</v>
       </c>
       <c r="T6">
-        <v>1.324287699593149E-06</v>
+        <v>5.615115775998398E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.863179</v>
       </c>
       <c r="I7">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J7">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N7">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O7">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P7">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q7">
-        <v>15.173170415617</v>
+        <v>9.039167820139332</v>
       </c>
       <c r="R7">
-        <v>136.558533740553</v>
+        <v>81.35251038125399</v>
       </c>
       <c r="S7">
-        <v>0.2418779622910103</v>
+        <v>0.1873804113915569</v>
       </c>
       <c r="T7">
-        <v>0.2659707354971885</v>
+        <v>0.1980776865409704</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.863179</v>
       </c>
       <c r="I8">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J8">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>18.441306</v>
       </c>
       <c r="O8">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P8">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q8">
         <v>30.455159119086</v>
@@ -948,10 +948,10 @@
         <v>274.096432071774</v>
       </c>
       <c r="S8">
-        <v>0.485490614498806</v>
+        <v>0.6313302682593291</v>
       </c>
       <c r="T8">
-        <v>0.5338489484208319</v>
+        <v>0.6673719950309217</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>14.863179</v>
       </c>
       <c r="I9">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J9">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N9">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O9">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P9">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q9">
-        <v>0.08718905947833332</v>
+        <v>0.04652009880566666</v>
       </c>
       <c r="R9">
-        <v>0.7847015353049999</v>
+        <v>0.4186808892509999</v>
       </c>
       <c r="S9">
-        <v>0.001389894890983559</v>
+        <v>0.0009643537353914651</v>
       </c>
       <c r="T9">
-        <v>0.001528338352602457</v>
+        <v>0.001019407287533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>14.863179</v>
       </c>
       <c r="I10">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J10">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N10">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O10">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P10">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q10">
-        <v>15.8526629383705</v>
+        <v>7.681149706999499</v>
       </c>
       <c r="R10">
-        <v>95.11597763022297</v>
+        <v>46.086898241997</v>
       </c>
       <c r="S10">
-        <v>0.2527098624340702</v>
+        <v>0.1592289268986619</v>
       </c>
       <c r="T10">
-        <v>0.1852543801906092</v>
+        <v>0.1122127164956845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>14.863179</v>
       </c>
       <c r="I11">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J11">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N11">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O11">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P11">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q11">
-        <v>0.109432632584</v>
+        <v>0.1877202993056667</v>
       </c>
       <c r="R11">
-        <v>0.984893693256</v>
+        <v>1.689482693751</v>
       </c>
       <c r="S11">
-        <v>0.001744483285465188</v>
+        <v>0.003891409874266479</v>
       </c>
       <c r="T11">
-        <v>0.001918246284626371</v>
+        <v>0.004113564804096295</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H12">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I12">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J12">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N12">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O12">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P12">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q12">
-        <v>0.24858872573</v>
+        <v>0.03485112781733334</v>
       </c>
       <c r="R12">
-        <v>1.49153235438</v>
+        <v>0.313660150356</v>
       </c>
       <c r="S12">
-        <v>0.003962793060453885</v>
+        <v>0.0007224579516403967</v>
       </c>
       <c r="T12">
-        <v>0.002905010375008845</v>
+        <v>0.0007637020253148302</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H13">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I13">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J13">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>18.441306</v>
       </c>
       <c r="O13">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P13">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q13">
-        <v>0.49896026934</v>
+        <v>0.117421942404</v>
       </c>
       <c r="R13">
-        <v>2.99376161604</v>
+        <v>1.056797481636</v>
       </c>
       <c r="S13">
-        <v>0.007954006308919799</v>
+        <v>0.002434136893114799</v>
       </c>
       <c r="T13">
-        <v>0.005830854777880146</v>
+        <v>0.002573098227992949</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,49 +1281,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H14">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I14">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J14">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N14">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O14">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P14">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q14">
-        <v>0.001428456716666667</v>
+        <v>0.0001793614126666667</v>
       </c>
       <c r="R14">
-        <v>0.008570740299999999</v>
+        <v>0.001614252714</v>
       </c>
       <c r="S14">
-        <v>2.277125942595501E-05</v>
+        <v>3.718131576047312E-06</v>
       </c>
       <c r="T14">
-        <v>1.669295970676818E-05</v>
+        <v>3.930394299857796E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H15">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I15">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J15">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N15">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O15">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P15">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q15">
-        <v>0.259721150645</v>
+        <v>0.029615196393</v>
       </c>
       <c r="R15">
-        <v>1.03888460258</v>
+        <v>0.177691178358</v>
       </c>
       <c r="S15">
-        <v>0.004140256845545655</v>
+        <v>0.0006139179838212754</v>
       </c>
       <c r="T15">
-        <v>0.002023402670461245</v>
+        <v>0.0004326437790664902</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1399,55 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H16">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I16">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J16">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N16">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O16">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P16">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q16">
-        <v>0.00179288296</v>
+        <v>0.0007237684126666667</v>
       </c>
       <c r="R16">
-        <v>0.01075729776</v>
+        <v>0.006513915714000001</v>
       </c>
       <c r="S16">
-        <v>2.858063707929696E-05</v>
+        <v>1.500359608497717E-05</v>
       </c>
       <c r="T16">
-        <v>2.095164848961619E-05</v>
+        <v>1.58601295633688E-05</v>
       </c>
     </row>
   </sheetData>
